--- a/biology/Botanique/Émile_Burnat/Émile_Burnat.xlsx
+++ b/biology/Botanique/Émile_Burnat/Émile_Burnat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Burnat</t>
+          <t>Émile_Burnat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Burnat, né à Vevey le 31 octobre 1828 et mort le 31 août 1920, est un ingénieur et botaniste vaudois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Burnat</t>
+          <t>Émile_Burnat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Burnat, fait ses premières études à Vevey puis s'installe à Genève en 1845 suivant les cours de l'Académie et où il travaille en particulier les mathématiques avec le professeur A. Pascalis.
 En 1847 Émile Burnat entre à l'École centrale dont il sort en 1851 avec le diplôme d'ingénieur, premier ex aequo avec Molinos dans la spécialité des métallurgistes. Cédant aux propositions de son oncle Jean Dolfuss, il accepte d'entrer dans l'établissement Dollfuss, Mieg et Cie à Mulhouse.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Burnat</t>
+          <t>Émile_Burnat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Émile Burnat », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 J. Briquet, journal de Genève, 1920/09/06 Photographie Boissonnas, Genève Patrie suisse, (A. Bonard) 1908, no 395, p. 265-266
